--- a/antarctica/antarctica.xlsx
+++ b/antarctica/antarctica.xlsx
@@ -35,12 +35,6 @@
     <t>Land Area (square miles)</t>
   </si>
   <si>
-    <t>Continental U.S.</t>
-  </si>
-  <si>
-    <t>Metropolitan France</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -50,15 +44,6 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -74,13 +59,28 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Southern Ireland</t>
-  </si>
-  <si>
     <t>Great Britain</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>USA (Lower 48)</t>
+  </si>
+  <si>
+    <t>France (Metropolitan)</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -132,6 +132,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -475,7 +478,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>SUM(B8:B23)</f>
-        <v>4318493</v>
+        <v>4539357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,134 +490,137 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>213011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B11" s="1">
+        <v>137903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>93628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>116347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>145936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>103483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>148728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>120726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>35603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>195360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
         <v>3119884</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>213011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>137903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>145936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1">
-        <v>103483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>173860</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <v>35603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>32595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1">
-        <v>32386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <v>116347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>16040</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1">
-        <v>11787</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A8:B24">
+    <sortCondition ref="A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/antarctica/antarctica.xlsx
+++ b/antarctica/antarctica.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\maps\antarctica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raddick/Documents/GitHub/maps/antarctica/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="9255"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21060" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Place</t>
   </si>
@@ -81,12 +81,15 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>Permanent Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,175 +449,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5400000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5400000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f>SUM(B8:B23)</f>
         <v>4539357</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f>SUM(C8:C23)</f>
+        <v>876913551</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(G8:G23)</f>
+        <v>4539357</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SUM(H8:H23)</f>
+        <v>876913551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>32386</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>8794267</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32386</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8794267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>11787</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>11303528</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11787</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11303528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>213011</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>65058000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>213011</v>
+      </c>
+      <c r="H10" s="1">
+        <v>65058000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>137903</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>82800000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>137903</v>
+      </c>
+      <c r="H11" s="1">
+        <v>82800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>93628</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>60800000</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>93628</v>
+      </c>
+      <c r="H12" s="1">
+        <v>60800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>32595</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>6572728</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32595</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6572728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>116347</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>60589445</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>116347</v>
+      </c>
+      <c r="H14" s="1">
+        <v>60589445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>145936</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>126672000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>145936</v>
+      </c>
+      <c r="H15" s="1">
+        <v>126672000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>16040</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>17170000</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17170000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>103483</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>4850350</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>103483</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4850350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>148728</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>5267146</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>148728</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5267146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>120726</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>38422346</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1">
+        <v>120726</v>
+      </c>
+      <c r="H19" s="1">
+        <v>38422346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>35603</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>10309573</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>35603</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10309573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>195360</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>46354321</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>195360</v>
+      </c>
+      <c r="H21" s="1">
+        <v>46354321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>15940</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>8401120</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>15940</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8401120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>3119884</v>
+      </c>
+      <c r="C23" s="1">
+        <f>325719178-741894-1428557</f>
+        <v>323548727</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3119884</v>
+      </c>
+      <c r="H23" s="1">
+        <f>325719178-741894-1428557</f>
+        <v>323548727</v>
       </c>
     </row>
   </sheetData>

--- a/antarctica/antarctica.xlsx
+++ b/antarctica/antarctica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21060" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12380" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Place</t>
   </si>
@@ -41,27 +41,15 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Great Britain</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -84,6 +72,15 @@
   </si>
   <si>
     <t>Permanent Population</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Hungary</t>
   </si>
 </sst>
 </file>
@@ -450,23 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,19 +466,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -496,51 +479,28 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5400000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <f>SUM(B8:B23)</f>
-        <v>4539357</v>
+        <f>SUM(B8:B22)</f>
+        <v>4490354</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(C8:C23)</f>
-        <v>876913551</v>
-      </c>
-      <c r="G5" s="1">
-        <f>SUM(G8:G23)</f>
-        <v>4539357</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SUM(H8:H23)</f>
-        <v>876913551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <f>SUM(C8:C22)</f>
+        <v>825592513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>32386</v>
@@ -548,19 +508,10 @@
       <c r="C8" s="1">
         <v>8794267</v>
       </c>
-      <c r="F8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>32386</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8794267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>11787</v>
@@ -568,37 +519,21 @@
       <c r="C9" s="1">
         <v>11303528</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11787</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11303528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>213011</v>
+        <f>213011-3350</f>
+        <v>209661</v>
       </c>
       <c r="C10" s="1">
-        <v>65058000</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1">
-        <v>213011</v>
-      </c>
-      <c r="H10" s="1">
-        <v>65058000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <f>65058000-330000</f>
+        <v>64728000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -608,39 +543,21 @@
       <c r="C11" s="1">
         <v>82800000</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>137903</v>
-      </c>
-      <c r="H11" s="1">
-        <v>82800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>93628</v>
       </c>
       <c r="C12" s="1">
-        <v>60800000</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>93628</v>
-      </c>
-      <c r="H12" s="1">
-        <v>60800000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65648100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>32595</v>
@@ -648,222 +565,108 @@
       <c r="C13" s="1">
         <v>6572728</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
-        <v>32595</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6572728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>145936</v>
+      </c>
+      <c r="C14" s="1">
+        <v>126672000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16040</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17170000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>148728</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5267146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>120726</v>
+      </c>
+      <c r="C17" s="1">
+        <v>38422346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
-        <v>116347</v>
-      </c>
-      <c r="C14" s="1">
-        <v>60589445</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>116347</v>
-      </c>
-      <c r="H14" s="1">
-        <v>60589445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>145936</v>
-      </c>
-      <c r="C15" s="1">
-        <v>126672000</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>145936</v>
-      </c>
-      <c r="H15" s="1">
-        <v>126672000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="B18" s="1">
+        <v>195360</v>
+      </c>
+      <c r="C18" s="1">
+        <v>46354321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
-        <v>16040</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17170000</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>16040</v>
-      </c>
-      <c r="H16" s="1">
-        <v>17170000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>103483</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4850350</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>103483</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4850350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>148728</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5267146</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
-        <v>148728</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5267146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="B19" s="1">
-        <v>120726</v>
+        <v>15940</v>
       </c>
       <c r="C19" s="1">
-        <v>38422346</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1">
-        <v>120726</v>
-      </c>
-      <c r="H19" s="1">
-        <v>38422346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8401120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1">
-        <v>35603</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3119884</v>
       </c>
       <c r="C20" s="1">
-        <v>10309573</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1">
-        <v>35603</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10309573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1">
-        <v>195360</v>
-      </c>
-      <c r="C21" s="1">
-        <v>46354321</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>195360</v>
-      </c>
-      <c r="H21" s="1">
-        <v>46354321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1">
-        <v>15940</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8401120</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1">
-        <v>15940</v>
-      </c>
-      <c r="H22" s="1">
-        <v>8401120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3119884</v>
-      </c>
-      <c r="C23" s="1">
         <f>325719178-741894-1428557</f>
         <v>323548727</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3119884</v>
-      </c>
-      <c r="H23" s="1">
-        <f>325719178-741894-1428557</f>
-        <v>323548727</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35920</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9797561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>173860</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10112669</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A8:B24">
-    <sortCondition ref="A21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
